--- a/P1/checklist non exhaustive.xlsx
+++ b/P1/checklist non exhaustive.xlsx
@@ -238,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,10 +597,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,25 +1036,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -1064,19 +1071,19 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1091,31 +1098,31 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1130,31 +1137,31 @@
       <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
